--- a/Final/Culminating/Planning/WatsonCookbooksJW-TestPlan.xlsx
+++ b/Final/Culminating/Planning/WatsonCookbooksJW-TestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jijwa\OneDrive\Documents\Coding\Java\Online\Final\Culminating\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA534DA6-12B7-4A6A-AAF0-2C266D1C933E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2A768B-DEB0-40AA-A33C-59D1693086A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D843929C-E617-4497-9C51-3C963D1147C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>TEST</t>
   </si>
@@ -50,113 +50,217 @@
     <t>FIX (if applicable)</t>
   </si>
   <si>
-    <t>Click the cookbook label on the sidebar</t>
-  </si>
-  <si>
-    <t>Click the search label on the sidebar</t>
-  </si>
-  <si>
-    <t>Click the recipe label on the sidebar</t>
-  </si>
-  <si>
-    <t>The cookbook tab opens, all other tabs close. The cookbook label becomes bolded and all other tabs return to plain text.</t>
-  </si>
-  <si>
-    <t>The search tab opens, all other tabs close. The search label becomes bolded and all other tabs return to plain text.</t>
-  </si>
-  <si>
-    <t>The recipe tab opens, all other tabs close. The recipe label becomes bolded and all other tabs return to plain text.</t>
-  </si>
-  <si>
-    <t>Click the add recipe button</t>
-  </si>
-  <si>
-    <t>The add recipe tab opens</t>
-  </si>
-  <si>
-    <t>Information shows up</t>
-  </si>
-  <si>
-    <t>Add an image</t>
-  </si>
-  <si>
-    <t>The image shows up and is properly resized</t>
-  </si>
-  <si>
-    <t>Click cancel</t>
-  </si>
-  <si>
-    <t>Returns to the cookbook tab, data is erased</t>
-  </si>
-  <si>
-    <t>Click done</t>
-  </si>
-  <si>
-    <t>Returns to the cookbook tab, new recipe is now shown in the cookbook tab</t>
-  </si>
-  <si>
-    <t>Click on recipe</t>
-  </si>
-  <si>
-    <t>Type in all of the recipe information (Name: Cake; Ingredients: 2 cups of flour, 3/4 cups of sugar, 1/2 tbl of vanilla, 1 1/2 cups of milk, 2 eggs; Directions: Preheat oven to 200C mix flour and sugar togeth, mix eggs, milk and vanilla together, mix wet and dry ingredients together, bake in oven for 45 mins)</t>
-  </si>
-  <si>
-    <t>Recipe tab opens, becomes bolded, all other tabs close. The ingredients and directions are displayed.</t>
-  </si>
-  <si>
-    <t>Search for recipe</t>
-  </si>
-  <si>
-    <t>Searched for recipe appears, no others appear.</t>
-  </si>
-  <si>
-    <t>New folder button is clicked</t>
-  </si>
-  <si>
-    <t>Button turns into text field, you can now type in the new folder</t>
-  </si>
-  <si>
-    <t>Type in new folder (dessert)</t>
-  </si>
-  <si>
-    <t>The name is correctly typed in, and once you hit enter, the new folder button reappears, and the breakfast folder is listed</t>
-  </si>
-  <si>
-    <t>Click on 3 dots in top right corner of recipe</t>
-  </si>
-  <si>
-    <t>menu appears, with three options, move, edit or delete.</t>
-  </si>
-  <si>
-    <t>Click edit on menu</t>
-  </si>
-  <si>
-    <t>Click move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shows you the folders that you can move it into </t>
-  </si>
-  <si>
-    <t>Move into the dessert folder</t>
-  </si>
-  <si>
-    <t>The recipe is moved into the dessert folder</t>
-  </si>
-  <si>
-    <t>Click delete</t>
-  </si>
-  <si>
-    <t>The recipe is erased</t>
-  </si>
-  <si>
-    <t>Takes you back to add recipe screen, with all the information filled in</t>
+    <t>Start with an empty recipe database, click on every button except for the add recipe button.</t>
+  </si>
+  <si>
+    <t>No errors occur, the sidebar buttons each take you to their corresponding tab.</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Click on the add new recipe button.</t>
+  </si>
+  <si>
+    <t>Select the name field, add the name "TEST - √"</t>
+  </si>
+  <si>
+    <t>The text "TEST - √" is written into the field</t>
+  </si>
+  <si>
+    <t>A loading icon appears whilst selecting the image, only png, jpg and jpeg files are visible in the file selector, the image is displayed in the image label</t>
+  </si>
+  <si>
+    <t>Select the image field, select a different image from the computer.</t>
+  </si>
+  <si>
+    <t>Select the image field, select a random image from the computer.</t>
+  </si>
+  <si>
+    <t>Same as above, but the previous image has been deleted from the image folder</t>
+  </si>
+  <si>
+    <t>Select the ingredient field, add the ingredients "Chicken", "Bacon" and "Ranch"</t>
+  </si>
+  <si>
+    <t>Ingredients appear in their proper places</t>
+  </si>
+  <si>
+    <t>Directions appear in their proper places</t>
+  </si>
+  <si>
+    <t>Select the directions field, add the directions "Mix Chicken and Bacon", "Place in oven, cook for 30 mins", "Add Ranch", "Serve"</t>
+  </si>
+  <si>
+    <t>Click the done button</t>
+  </si>
+  <si>
+    <t>The recipe appears in the cookbook tab, with the proper name and image</t>
+  </si>
+  <si>
+    <t>Close and Reopen the software</t>
+  </si>
+  <si>
+    <t>The recipe appears in the search tab, with the proper name and image</t>
+  </si>
+  <si>
+    <t>Click on the recipe body</t>
+  </si>
+  <si>
+    <t>The recipe tab opens, and displays the recipe's name, igredients and directions</t>
+  </si>
+  <si>
+    <t>The name and ingredients display properly, but the directions fail to properly display.</t>
+  </si>
+  <si>
+    <t>Click on the button with the three dots, and select edit from the popup menu</t>
+  </si>
+  <si>
+    <t>The recipe creator tab opens.</t>
+  </si>
+  <si>
+    <t>The recipe creator tab opens, and all of the correct information is in place</t>
+  </si>
+  <si>
+    <t>Click on the image, and change it to a different image</t>
+  </si>
+  <si>
+    <t>The new image appears</t>
+  </si>
+  <si>
+    <t>Hit the cancel button</t>
+  </si>
+  <si>
+    <t>The recipe creator closes, and the recipe has the old image</t>
+  </si>
+  <si>
+    <t>An error occurred, and the recipe disapeared</t>
+  </si>
+  <si>
+    <t>The directions have a comma in them, which messes with the CSV file. I temporarily replace all commas with the character \u23F7 when storing them to the database</t>
+  </si>
+  <si>
+    <t>Changing the image deleted the old image, and caused an erorr when the program tried to find it. Added a new global variable that temporarily stores the iamge until the cancel button is pressed</t>
+  </si>
+  <si>
+    <t>The recipe is created</t>
+  </si>
+  <si>
+    <r>
+      <t>Add a new recipe with the name</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"1\"\",2", the ingredients "Pizza", "Pie" and the directions "Add pizza to pie", "Serve"</t>
+    </r>
+  </si>
+  <si>
+    <t>Open the search tab, and search "\"</t>
+  </si>
+  <si>
+    <t>Only the secod recipe is displayed</t>
+  </si>
+  <si>
+    <t>Search "t"</t>
+  </si>
+  <si>
+    <t>Only the first recipe shows up</t>
+  </si>
+  <si>
+    <t>From the search tab, click the three dots and delete the second recipe</t>
+  </si>
+  <si>
+    <t>The cookbook tabs opens and the second recipe goes away</t>
+  </si>
+  <si>
+    <t>Search "-", click the three dots, edit the recipe, and rename it to 5</t>
+  </si>
+  <si>
+    <t>Create a new recipe, and name it 5</t>
+  </si>
+  <si>
+    <t>Name the new recipe 57</t>
+  </si>
+  <si>
+    <t>Navigate to the search tab and search "5"</t>
+  </si>
+  <si>
+    <t>Click on recipe 57</t>
+  </si>
+  <si>
+    <t>Click on the three dots and delete recipe 57</t>
+  </si>
+  <si>
+    <t>Close and reopen the program</t>
+  </si>
+  <si>
+    <t>Navigate to the cookbook tab, and edit the 5 recipe</t>
+  </si>
+  <si>
+    <t>Delete the recipe</t>
+  </si>
+  <si>
+    <t>The recipe is now named 5</t>
+  </si>
+  <si>
+    <t>An error is displayed, telling the user that each recipe must have a unique name</t>
+  </si>
+  <si>
+    <t>The recipe is created, with a name of 57</t>
+  </si>
+  <si>
+    <t>Both recipes are displayed</t>
+  </si>
+  <si>
+    <t>The recipe tab opens, and displays the title 57</t>
+  </si>
+  <si>
+    <t>Recipe 57 is deleted</t>
+  </si>
+  <si>
+    <t>Nothing changes</t>
+  </si>
+  <si>
+    <t>The recipe is opened into the recipe creator, with all of its data displayed</t>
+  </si>
+  <si>
+    <t>Delete all of its fields, except for its name</t>
+  </si>
+  <si>
+    <t>The now has no image, ingredients or directions</t>
+  </si>
+  <si>
+    <t>The recipe disappears. The database file is completely empty and the images folder is also empty.</t>
+  </si>
+  <si>
+    <t>The images folder still has images in it.</t>
+  </si>
+  <si>
+    <t>The delete image function didn't have an appropriate imagePath to find the image with. Told the delete function where the image was that needed to be deleted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,21 +271,48 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -191,38 +322,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -232,10 +341,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,28 +661,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13388A7-0BA7-4205-B5DC-602382F06D11}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="106.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="141.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="122.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="84.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="159.77734375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -579,139 +691,309 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Final/Culminating/Planning/WatsonCookbooksJW-TestPlan.xlsx
+++ b/Final/Culminating/Planning/WatsonCookbooksJW-TestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jijwa\OneDrive\Documents\Coding\Java\Online\Final\Culminating\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2A768B-DEB0-40AA-A33C-59D1693086A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568D96B8-4CEA-4ED5-BEA3-5BAA6E86236A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D843929C-E617-4497-9C51-3C963D1147C5}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Select the image field, select a random image from the computer.</t>
   </si>
   <si>
-    <t>Same as above, but the previous image has been deleted from the image folder</t>
-  </si>
-  <si>
     <t>Select the ingredient field, add the ingredients "Chicken", "Bacon" and "Ranch"</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Click the done button</t>
   </si>
   <si>
-    <t>The recipe appears in the cookbook tab, with the proper name and image</t>
-  </si>
-  <si>
     <t>Close and Reopen the software</t>
   </si>
   <si>
@@ -144,6 +138,96 @@
   </si>
   <si>
     <t>The recipe is created</t>
+  </si>
+  <si>
+    <t>Open the search tab, and search "\"</t>
+  </si>
+  <si>
+    <t>Only the secod recipe is displayed</t>
+  </si>
+  <si>
+    <t>Search "t"</t>
+  </si>
+  <si>
+    <t>Only the first recipe shows up</t>
+  </si>
+  <si>
+    <t>From the search tab, click the three dots and delete the second recipe</t>
+  </si>
+  <si>
+    <t>The cookbook tabs opens and the second recipe goes away</t>
+  </si>
+  <si>
+    <t>Search "-", click the three dots, edit the recipe, and rename it to 5</t>
+  </si>
+  <si>
+    <t>Create a new recipe, and name it 5</t>
+  </si>
+  <si>
+    <t>Name the new recipe 57</t>
+  </si>
+  <si>
+    <t>Navigate to the search tab and search "5"</t>
+  </si>
+  <si>
+    <t>Click on recipe 57</t>
+  </si>
+  <si>
+    <t>Click on the three dots and delete recipe 57</t>
+  </si>
+  <si>
+    <t>Close and reopen the program</t>
+  </si>
+  <si>
+    <t>Navigate to the cookbook tab, and edit the 5 recipe</t>
+  </si>
+  <si>
+    <t>Delete the recipe</t>
+  </si>
+  <si>
+    <t>The recipe is now named 5</t>
+  </si>
+  <si>
+    <t>An error is displayed, telling the user that each recipe must have a unique name</t>
+  </si>
+  <si>
+    <t>The recipe is created, with a name of 57</t>
+  </si>
+  <si>
+    <t>Both recipes are displayed</t>
+  </si>
+  <si>
+    <t>The recipe tab opens, and displays the title 57</t>
+  </si>
+  <si>
+    <t>Recipe 57 is deleted</t>
+  </si>
+  <si>
+    <t>Nothing changes</t>
+  </si>
+  <si>
+    <t>The recipe is opened into the recipe creator, with all of its data displayed</t>
+  </si>
+  <si>
+    <t>Delete all of its fields, except for its name</t>
+  </si>
+  <si>
+    <t>The recipe disappears. The database file is completely empty and the images folder is also empty.</t>
+  </si>
+  <si>
+    <t>The images folder still has images in it.</t>
+  </si>
+  <si>
+    <t>The delete image function didn't have an appropriate imagePath to find the image with. Told the delete function where the image was that needed to be deleted</t>
+  </si>
+  <si>
+    <t>The recipe now has no image, ingredients or directions</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>The recipe appears in the cookbook tab, with the proper name and image, checking the image folder there is only one image</t>
   </si>
   <si>
     <r>
@@ -168,92 +252,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"1\"\",2", the ingredients "Pizza", "Pie" and the directions "Add pizza to pie", "Serve"</t>
+      <t>"1\"\",2", the ingredients "Pizza", "Pie" and the directions "Add pizza to pie", "Serve", click done</t>
     </r>
-  </si>
-  <si>
-    <t>Open the search tab, and search "\"</t>
-  </si>
-  <si>
-    <t>Only the secod recipe is displayed</t>
-  </si>
-  <si>
-    <t>Search "t"</t>
-  </si>
-  <si>
-    <t>Only the first recipe shows up</t>
-  </si>
-  <si>
-    <t>From the search tab, click the three dots and delete the second recipe</t>
-  </si>
-  <si>
-    <t>The cookbook tabs opens and the second recipe goes away</t>
-  </si>
-  <si>
-    <t>Search "-", click the three dots, edit the recipe, and rename it to 5</t>
-  </si>
-  <si>
-    <t>Create a new recipe, and name it 5</t>
-  </si>
-  <si>
-    <t>Name the new recipe 57</t>
-  </si>
-  <si>
-    <t>Navigate to the search tab and search "5"</t>
-  </si>
-  <si>
-    <t>Click on recipe 57</t>
-  </si>
-  <si>
-    <t>Click on the three dots and delete recipe 57</t>
-  </si>
-  <si>
-    <t>Close and reopen the program</t>
-  </si>
-  <si>
-    <t>Navigate to the cookbook tab, and edit the 5 recipe</t>
-  </si>
-  <si>
-    <t>Delete the recipe</t>
-  </si>
-  <si>
-    <t>The recipe is now named 5</t>
-  </si>
-  <si>
-    <t>An error is displayed, telling the user that each recipe must have a unique name</t>
-  </si>
-  <si>
-    <t>The recipe is created, with a name of 57</t>
-  </si>
-  <si>
-    <t>Both recipes are displayed</t>
-  </si>
-  <si>
-    <t>The recipe tab opens, and displays the title 57</t>
-  </si>
-  <si>
-    <t>Recipe 57 is deleted</t>
-  </si>
-  <si>
-    <t>Nothing changes</t>
-  </si>
-  <si>
-    <t>The recipe is opened into the recipe creator, with all of its data displayed</t>
-  </si>
-  <si>
-    <t>Delete all of its fields, except for its name</t>
-  </si>
-  <si>
-    <t>The now has no image, ingredients or directions</t>
-  </si>
-  <si>
-    <t>The recipe disappears. The database file is completely empty and the images folder is also empty.</t>
-  </si>
-  <si>
-    <t>The images folder still has images in it.</t>
-  </si>
-  <si>
-    <t>The delete image function didn't have an appropriate imagePath to find the image with. Told the delete function where the image was that needed to be deleted</t>
   </si>
 </sst>
 </file>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13388A7-0BA7-4205-B5DC-602382F06D11}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -747,10 +747,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -791,24 +791,24 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -827,24 +827,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
@@ -852,10 +852,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -863,10 +863,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -874,10 +874,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -896,10 +896,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -918,10 +918,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -940,10 +940,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -951,10 +951,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
@@ -962,10 +962,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>61</v>
@@ -984,16 +984,16 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
